--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -1,173 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\Teloegram_bot_P\MTT_kontrakt\file_service\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8174506E-FD9A-4E7F-9203-FE0A5EACB152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5055" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
-  <si>
-    <t>F.I.SH</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Shartnoma raqam</t>
-  </si>
-  <si>
-    <t>Viloyat</t>
-  </si>
-  <si>
-    <t>Tuman</t>
-  </si>
-  <si>
-    <t>Ta'lim yo'nalishi</t>
-  </si>
-  <si>
-    <t>Telefon raqam</t>
-  </si>
-  <si>
-    <t>Sana</t>
-  </si>
-  <si>
-    <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
-  </si>
-  <si>
-    <t>Toshkent shahri</t>
-  </si>
-  <si>
-    <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
-  </si>
-  <si>
-    <t>Babanazarova Bibizada Kudaybergenovna</t>
-  </si>
-  <si>
-    <t>Shavqiyeva Elmira Ravshan qizi</t>
-  </si>
-  <si>
-    <t>Shilmanova Guljahan Janabaevna</t>
-  </si>
-  <si>
-    <t>Domlajonova Sadoqatxon Tuychiboy qizi</t>
-  </si>
-  <si>
-    <t>Abdusamadova Zilola Akmalovna</t>
-  </si>
-  <si>
-    <t>Pozilova Madinabonu Axrorjon qizi</t>
-  </si>
-  <si>
-    <t>Xomidova Gulbahor Nuriddinjon qizi</t>
-  </si>
-  <si>
-    <t>Nozimova Muhabbat Mahmudovna</t>
-  </si>
-  <si>
-    <t>KA0605113</t>
-  </si>
-  <si>
-    <t>AB4061668</t>
-  </si>
-  <si>
-    <t>KA0498012</t>
-  </si>
-  <si>
-    <t>AD0954781</t>
-  </si>
-  <si>
-    <t>AA8563590</t>
-  </si>
-  <si>
-    <t>AD3855397</t>
-  </si>
-  <si>
-    <t>AD0615666</t>
-  </si>
-  <si>
-    <t>AD3649833</t>
-  </si>
-  <si>
-    <t>Maktabgacha ta’lim tashkiloti direktori</t>
-  </si>
-  <si>
-    <t>998906530771</t>
-  </si>
-  <si>
-    <t>Qoraqalpogʻiston Respublikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qoraqalpogʻiston Respublikasi </t>
-  </si>
-  <si>
-    <t>Nukus shahri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fargona viloyati </t>
-  </si>
-  <si>
-    <t>Rishton tumani</t>
-  </si>
-  <si>
-    <t>Buxoro viloyati</t>
-  </si>
-  <si>
-    <t>Gʻijduvon tumani</t>
-  </si>
-  <si>
-    <t>Chilonzor tumani</t>
-  </si>
-  <si>
-    <t>Andijon viloyati</t>
-  </si>
-  <si>
-    <t>Qoʻrgʻontepa tumani</t>
-  </si>
-  <si>
-    <t>Fargona viloyati</t>
-  </si>
-  <si>
-    <t>Oʻzbekiston tumani</t>
-  </si>
-  <si>
-    <t>Romitan tumani</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,27 +49,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -506,256 +428,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col width="42.85546875" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="3"/>
+    <col width="45.85546875" customWidth="1" min="4" max="4"/>
+    <col width="49.5703125" customWidth="1" min="5" max="5"/>
+    <col width="55.7109375" customWidth="1" min="6" max="6"/>
+    <col width="18.28515625" customWidth="1" min="7" max="7"/>
+    <col width="18.140625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>F.I.SH</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Passport</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Shartnoma raqam</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Viloyat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tuman</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ta'lim yo'nalishi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Telefon raqam</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sana</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Babanazarova Bibizada Kudaybergenovna</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KA0605113</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nukus shahri</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>998906530771</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>45400</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Shavqiyeva Elmira Ravshan qizi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AB4061668</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gʻijduvon tumani</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>998914086766</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>45401</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shilmanova Guljahan Janabaevna</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KA0498012</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qoraqalpogʻiston Respublikasi </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nukus shahri</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>998906588722</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>45401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Domlajonova Sadoqatxon Tuychiboy qizi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AD0954781</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fargona viloyati </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rishton tumani</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>998505746996</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>45401</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Abdusamadova Zilola Akmalovna</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AA8563590</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>998909516399</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="n">
         <v>45401</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pozilova Madinabonu Axrorjon qizi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AD3855397</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Qoʻrgʻontepa tumani</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>998991171331</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="n">
         <v>45402</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Xomidova Gulbahor Nuriddinjon qizi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AD0615666</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Oʻzbekiston tumani</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>998903054410</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="n">
         <v>45402</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nozimova Muhabbat Mahmudovna</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AD3649833</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Romitan tumani</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>998934508488</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="n">
         <v>45402</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Xujamova Saida Nuritdinovna</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AD1304798</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>998933186045</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>22-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sayfullayeva Zarnigor Pahlavonovna</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AA4336471</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Buxoro tumani</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>998905129899</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>23-04-2024</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -1076,6 +1076,90 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Norqulova Gulhayo Qilich qizi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AA7992447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>998934314533</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>25-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Qarshiboyeva Dildora</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AB0538735</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>067</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Oqqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti tarbiyachisi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>998937022727</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>25-04-2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -1160,6 +1160,174 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Abduraximova Xumora Dagarovna</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AB1724387</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>068</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Oqdaryo tumani</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>998995483382</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Qurbonova shalola nodirjon qizi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AD3716821</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>998934314334</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shodmonova Munira Suyunovna</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AA8333140</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>070</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>998991343837</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tuychiyeva Malika Ravshanovna</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AA8793714</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Forish tumani</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>998995483382</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>26-04-2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -1328,6 +1328,3120 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Matqayumova Mavluda Avazbek qizi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AA8417466</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Yangiqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>998936718481</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>27-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Zulfiqorov G'olib Ro'zievich</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AB7127809</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Qamashi tumani</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>998996772353</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>27-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Karimova Gulsanam Jamoliddin qizi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AA9900792</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Buxoro tumani</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>998931464543</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>28-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Solixojayeva Nigina Odilxonovna</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AD5165302</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Kosonsoy tumani</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>998936743887</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>29-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dilnoza Artikboeva Nurullaevna</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KA0443079</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Beruniy tumani</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>+998977888980</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>29-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bakirova Madina  Miratovna</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AD3332719</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yakkasaroy tumani</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>998935802777</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>29-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Umurzoqova Mahliyo Sattorjon  qizi</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AB2414573</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Toʻraqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>998931919146</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>29-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Zoyitova Nargiza Muxiddinovna</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AD3479510</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>079</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Kogon tumani</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>998972822042</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>30-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rahimova Gulchehra Salimjonovna</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AD3500471</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kosonsoy tumani</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>998940709788</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>30-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ibragimova Shaxnoza Rustamjanovna</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AB9400469</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Namangan tumani</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>998934034191</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>30-04-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Men shartnomani tortib ololmayapman</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AB8184108</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>082</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yangiqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>998939168982</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>01-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Meyliyeva charos G'ayrat qizi</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AA5486423</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>083</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Qamashi tumani</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>998930726885</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>01-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Atamuratova Sevara Zokirjonovna</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AD2715687</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>998934670315</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>01-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mamajonova Shahlo Shavkatovna</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AD5598528</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Furqat tumani</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>+998911537998</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>01-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DJumanazarova Gulnoza Kuvandiqovna</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AD5803534</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>086</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>998999609018</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>01-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bekberganova Shoira Egamberganovna</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AB5920609</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>998996260971</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>01-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bobomuradova Mahbuba Achilovna</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AB6695840</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>998948725583</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Xojayeva Zubayda Odilbekovna</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AD5682521</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>998914270273</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sattarova Zeboxon Ro'zmetovna</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AA9196725</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>998974591415</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Botirova Nazokat Shokirovna</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AD2924379</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>998973632501</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hazratova Laylo Azamovna</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AB6461603</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Romitan tumani</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>998993507334</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rasulova Munojot Tohirovna</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AD6434876</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>093</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Romitan tumani</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>998995847437</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Xoliqova Fariza Yunusovna</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AA6420103</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>094</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>998906655040</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>02-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Matkarimova Ikbol Muxtarovna</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AD3712963</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>998934691901</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>03-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Djumaniyazova Lola Rashidovna</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AA7518865</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>096</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>998904387292</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>03-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Allaberganova Sumbuloy Islom qizi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AB0126939</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>097</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>998991488818</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>03-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sodiqova Moxina Abduxolikovna</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AB2957764</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Uzun tumani</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti oshpazi</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>998917961802</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>03-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Allaniyazova Raushan Qutlimuratovna</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KA0235629</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Chimboy tumani</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>998990838669</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>03-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Toshboltayeva Zuhra Zokirjanovna</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AB7839356</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Chortoq tumani</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>998997253030</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>03-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Muslimova Muazzam Asqarjon qizi</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AD1949347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>998998133007</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>04-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oripova Nilufar Pardayevna</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AB0838291</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Karmana tumani</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>998936606070</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Shodiyeva Muxabbat Shodiyevna</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AA9880238</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Karmana tumani</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>998933139215</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rustamova Dildora Tuxtasinovna</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AC0094991</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Yangiqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>998949156630</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Niyazova Dilorom Amriddinovna</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AA9119379</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Samarqand tumani</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>998975769955</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Qoldasova Gulparshin Muratovna</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>KA0951142</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Kegeyli tumani</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>998940793012</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Asqarova Feruza Sobirjon qizi</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AD3754896</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Jomboy tumani</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>998990950436</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kayumova Kamola Akramjanovna</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AB0954866</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Namangan tumani</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>998905986203</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mexmonova Nodiraxon Yusufxon qizi</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AB0864168</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Namangan tumani</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>998977091404</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Xudoyberdiyeva Muqaddam Poziljonovna</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>AB6007591</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Norin tumani</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>998993226287</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tursunova Sayyora Soloxiddinovna</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AB5015672</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Namangan tumani</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>998999778119</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Dosbergenova Gulshaxira Usnaddinovna</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KA0884328</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Kegeyli tumani</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>998994580623</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ergasheva Dilafro'z Alisher qizi</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>AD2356363</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>+998939242200</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Qo'chqarova Nasiba Abdurashidovna</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AA7616310</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>998945058988</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kamalova Zamira Polatovna</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AD4611370</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kegeyli tumani</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>998934870682</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Qo'ldosheva Mahmuda Xayriddinovna</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AD6438180</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nurota tumani</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>998973653433</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kudaynazarova Roza Reymovna</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>KA1065119</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Kegeyli tumani</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>998932048678</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Yarasheva Charos Otabekovna</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AB2871457</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Kogon tumani</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>+998906137411</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Xudayberganova Maksuda Kadambayevna</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AB9742832</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>998995416850</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sharipova Dilfuza Babadjanovna</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AD5574667</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>998939215060</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nazarmuxamedova Zulfiya Dilshadovna</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AD1737178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti tarbiyachisi</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>998887053223</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Saidalimova Ozoda Ibodullayevna</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>KA0642288</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ellikqalʼa tumani</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>998977888224</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Artikova Zamira Maksadovna</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KA0597724</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Ellikqalʼa tumani</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>998997306215</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Abdullayeva Shahnoza G'ayratjonovna</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AA5469437</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Norin tumani</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>998932661510</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Abdullayeva Shaxnoza Boxodirovna</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AB4985603</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>998978565611</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>QARAJANOVA Zamira Mirzabaevna</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AD0751225</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Qoʻngʻirot tumani</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>998906513600</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Bujabaeva Zoya Jumabaevna</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AD6475971</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Qoʻngʻirot tumani</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>998907235929</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Islomova Dilnoza Baxtiyorovna</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AD3824856</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Samarqand tumani</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>998915313411</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Kumekova Asima Jumabaevna</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>KA0748438</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Qoʻngʻirot tumani</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>998330332598</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Iskendirova Genjegul Keulimjaevna</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>KA0635093</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Qoʻngʻirot tumani</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>+998944540130</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>KELIMBETOVA GULZIRA TOREBAEVNA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>KA0624655</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Qoʻngʻirot tumani</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>998997471079</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Radjabov Jamshed Shuxratovich</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AA6790283</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Samarqand tumani</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>998991793656</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ostonova
+Gulnavoz
+Qodirovna</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AD3603883</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Jondor tumani</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>998907447695</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sherliyeva Gulrux Atabekovna</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AA5543019</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>998914272272</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ostonova
+Gulnavoz
+Qodirovna</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AD3603883</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Jondor tumani</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>998907447695</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Xolmirzayeva MASHXURA Kutpullayevna</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>AD4978770</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Namangan tumani</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>998992994081</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ostonova
+Gulnavoz
+Qodirovna</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AD3603883</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Jondor tumani</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>998907447695</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>10-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shekekbaev Nursultan Malikbaevich</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>KA0589704</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Chimboy tumani</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>998337307871</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>11-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Babayarova Munisa Sultonmurotovna</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AD1998301</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Uchtepa (Toshkent)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>998977030384</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>11-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nazarova Odina Soataliyevna</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AB8837515</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Toʻraqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>998976803414</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>11-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jamolov Sherali</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AB2618559</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Furqat tumani</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>998936407083</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>12-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jo'raqulova Go'zal Normurod izi</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AC0936727</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sariosiyo tumani</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>998912312043</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ochilova E'tibor Umarovna</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AB3573291</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Qarshi tumani</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>998907162024</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mamajanova Zuhrahon Mahkamovna</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>AD4043367</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>998934916668</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Rustamova Muqaddasxon G'ayratjon qizi</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>AB4644369</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Toshloq tumani</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>+998974167278</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -4442,6 +4442,636 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ibadullayeva Ozodaxon Nuraddin qizi</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AD4790061</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Xiva tumani</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>998914278764</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>15-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Rustamova Shohnoza Xushmatovna</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AB5924952</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti tarbiyachisi</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>998999319041</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>15-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Umarova Feruza Isroiljonovna</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>AD2736984</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>998939422615</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>16-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Primqulova Zulfiya Djabbarovna</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>AB2914174</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Termiz tumani</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>998977940013</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>16-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Xasanova maftuna</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>AB1676320</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Andijon tuman</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>998916102810</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>17-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Safarova Dildora Shomurotovna</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AB5494666</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Termiz tumani</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>998907478616</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>17-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Xudoyberdiyeva Barchinoy Sobirovna</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AA6486701</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>998947271989</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Karimova Umida Hamroboyevna</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AA5316053</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Nurota tumani</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>+998934315343</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Allaberganova Sharofat Komiljonovna</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AD4771702</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>998907192557</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Yuldasheva Zarifaxon Yashinjan qizi</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AA6363827</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Andijon tuman</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>+79098312494</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>21-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Allayorova Dinora Farhod qizi</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AB3135777</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Nurota tumani</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>+998999573907</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>22-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Badalova Dildora Fayzulla qizi</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>AB1866845</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti tarbiyachisi</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>998909996877</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>23-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Abdullayeva Minajaat Mahkamovna</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>AB6360027</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti direktori</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>998937092759</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>27-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sulaymonova Feruza Baxshulloevna</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>AA6765464</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>998913308498</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>29-05-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Toxtasinova Munojat Muxammadjon qizi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AC0335486</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>998933338395</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>05-06-2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -5072,6 +5072,48 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Karimova Yulduz Rustam qizi</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>AD5261419</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Sharof Rashidov tumani</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>998904888818</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>16-06-2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -5114,6 +5114,300 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Maripova Feruza Ravshanovna</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AD4466152</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>998909718776</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>02-07-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Maxmado'stova Dilora Davronovna</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>AA8590240</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Yakkasaroy tumani</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti metodisti</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>998977510645</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>05-08-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Teshaboyeva Maftuna</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>AC0241019</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Oltinkoʻl tuman</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti tarbiyachisi</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>998881611920</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TOJIBOYEVA ZIYODAHON</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>AB7035961</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Andijon tuman</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti defektologi/logopedi</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>998334080124</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Reyimboyeva Umida Sheripboy qizi</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>KA0904049</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Beruniy tumani</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti musiqa rahbari</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>+998977041426</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>13-08-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Erkaboyeva Zebiniso Yuldosh qizi</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>AD5040674</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Uchqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti psixologi</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>998940115738</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>29-08-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Aliyarova Madinabonu Shavkatovna</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>AB8916133</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Andijon tuman</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Maktabgacha ta’lim tashkiloti tarbiyachisi</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>998937890467</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>31-08-2024</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
